--- a/src/test/resources/excel/TransferFundSuite.xlsx
+++ b/src/test/resources/excel/TransferFundSuite.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEF5FAC-F4AB-4478-8E4E-5EE0B83E468E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>RunMode</t>
   </si>
@@ -97,11 +98,20 @@
   <si>
     <t>TransferFundAnotherTransactionVerify</t>
   </si>
+  <si>
+    <t>TransferFundNumericValueChk</t>
+  </si>
+  <si>
+    <t>Transfer Money &amp; Make Payments - Verify</t>
+  </si>
+  <si>
+    <t>Miraz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,19 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -446,7 +456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -454,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -462,11 +472,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -476,47 +494,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -530,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -544,12 +562,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -572,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -595,12 +613,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -623,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -646,12 +664,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -674,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -695,6 +713,57 @@
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -704,24 +773,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>9</v>
       </c>
